--- a/data/energy.xlsx
+++ b/data/energy.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.53</v>
+        <v>7.601</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,23 +446,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>7.397</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.154999999999999</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -471,10 +473,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B5" t="n">
-        <v>8.189</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -483,10 +485,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B6" t="n">
-        <v>7.582</v>
+        <v>8.189</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -495,10 +497,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B7" t="n">
-        <v>7.482</v>
+        <v>7.582</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -507,10 +509,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B8" t="n">
-        <v>7.145</v>
+        <v>7.482</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -519,10 +521,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>7.71</v>
+        <v>45383</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.145</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -531,7 +533,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7.71</v>
@@ -543,10 +545,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>8.975</v>
+        <v>7.71</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -555,10 +557,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8.367000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -567,10 +569,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>7.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -579,10 +581,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>7.546</v>
+        <v>7.843</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -591,10 +593,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>7.43</v>
+        <v>7.546</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -603,10 +605,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -615,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>8.074</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>7.511</v>
+        <v>8.074</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>7.333</v>
+        <v>7.511</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>7.17</v>
+        <v>7.333</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>8.137</v>
+        <v>7.17</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7.596</v>
+        <v>8.137</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>8.465</v>
+        <v>7.596</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>8.638999999999999</v>
+        <v>8.465</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>7.802</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>7.381</v>
+        <v>44866</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>7.802</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>7.388</v>
+        <v>7.381</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>8.112</v>
+        <v>7.388</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>8.105</v>
+        <v>8.112</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>7.637</v>
+        <v>8.105</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>7.427</v>
+        <v>7.637</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -795,10 +797,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7.235</v>
+        <v>7.427</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -807,10 +809,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>8.044</v>
+        <v>7.235</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7.995</v>
+        <v>8.044</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>9.036</v>
+        <v>7.995</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>8.349</v>
+        <v>9.036</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>7.774</v>
+        <v>8.349</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>7.419</v>
+        <v>7.774</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -879,10 +881,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7.375</v>
+        <v>7.419</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -891,10 +893,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>8.163</v>
+        <v>7.375</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>8.07</v>
+        <v>8.163</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -915,10 +917,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>7.668</v>
+        <v>8.07</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -927,10 +929,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>7.721</v>
+        <v>7.668</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>7.516</v>
+        <v>7.721</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>8.118</v>
+        <v>7.516</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>8.147</v>
+        <v>8.118</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8.936999999999999</v>
+        <v>8.147</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8.714</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>7.583</v>
+        <v>8.714</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>7.477</v>
+        <v>7.583</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>7.301</v>
+        <v>7.477</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>8.015000000000001</v>
+        <v>7.301</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1046,7 +1048,12 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
+      <c r="A53" s="4" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>8.015000000000001</v>
+      </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
         <v/>
@@ -1108,6 +1115,13 @@
         <v/>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="C62">
+        <f>(B62/B74-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/energy.xlsx
+++ b/data/energy.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,23 +432,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.513999999999999</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>8.645</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.601</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -457,10 +459,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B4" t="n">
-        <v>7.533</v>
+        <v>7.601</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -469,10 +471,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B5" t="n">
-        <v>7.397</v>
+        <v>7.533</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -481,10 +483,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B6" t="n">
-        <v>8.154999999999999</v>
+        <v>7.397</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -493,10 +495,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B7" t="n">
-        <v>8.189</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -505,10 +507,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B8" t="n">
-        <v>7.582</v>
+        <v>8.189</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -517,10 +519,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B9" t="n">
-        <v>7.482</v>
+        <v>7.582</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -529,10 +531,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B10" t="n">
-        <v>7.145</v>
+        <v>7.482</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -541,10 +543,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>7.71</v>
+        <v>45383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.145</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -553,7 +555,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>7.71</v>
@@ -565,10 +567,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.975</v>
+        <v>7.71</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -577,10 +579,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>8.367000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -589,10 +591,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>7.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -601,10 +603,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>7.546</v>
+        <v>7.843</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -613,10 +615,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>7.43</v>
+        <v>7.546</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -625,10 +627,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -637,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>8.074</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -649,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>7.511</v>
+        <v>8.074</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -661,10 +663,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>7.333</v>
+        <v>7.511</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -673,10 +675,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7.17</v>
+        <v>7.333</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -685,10 +687,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>8.137</v>
+        <v>7.17</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -697,10 +699,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>7.596</v>
+        <v>8.137</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -709,10 +711,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>8.465</v>
+        <v>7.596</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -721,10 +723,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>8.638999999999999</v>
+        <v>8.465</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -733,10 +735,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>7.802</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -745,10 +747,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>7.381</v>
+        <v>44866</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>7.802</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -757,10 +759,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>7.388</v>
+        <v>7.381</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -769,10 +771,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>8.112</v>
+        <v>7.388</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -781,10 +783,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>8.105</v>
+        <v>8.112</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -793,10 +795,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7.637</v>
+        <v>8.105</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -805,10 +807,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>7.427</v>
+        <v>7.637</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -817,10 +819,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7.235</v>
+        <v>7.427</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -829,10 +831,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>8.044</v>
+        <v>7.235</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -841,10 +843,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>7.995</v>
+        <v>8.044</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -853,10 +855,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>9.036</v>
+        <v>7.995</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -865,10 +867,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>8.349</v>
+        <v>9.036</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -877,10 +879,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7.774</v>
+        <v>8.349</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -889,10 +891,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>7.419</v>
+        <v>7.774</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -901,10 +903,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>7.375</v>
+        <v>7.419</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -913,10 +915,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>8.163</v>
+        <v>7.375</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -925,10 +927,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>8.07</v>
+        <v>8.163</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -937,10 +939,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>7.668</v>
+        <v>8.07</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -949,10 +951,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>7.721</v>
+        <v>7.668</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -961,10 +963,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>7.516</v>
+        <v>7.721</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -973,10 +975,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8.118</v>
+        <v>7.516</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -985,10 +987,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8.147</v>
+        <v>8.118</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -997,10 +999,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>8.936999999999999</v>
+        <v>8.147</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>8.714</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>7.583</v>
+        <v>8.714</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1033,10 +1035,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>7.477</v>
+        <v>7.583</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>7.301</v>
+        <v>7.477</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1057,10 +1059,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>8.015000000000001</v>
+        <v>7.301</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1068,7 +1070,12 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
+      <c r="A55" s="4" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>8.015000000000001</v>
+      </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
         <v/>
@@ -1130,6 +1137,13 @@
         <v/>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
+      <c r="C64">
+        <f>(B64/B76-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/energy.xlsx
+++ b/data/energy.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.513999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,23 +446,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.513999999999999</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>8.645</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.601</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -471,10 +473,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B5" t="n">
-        <v>7.533</v>
+        <v>7.601</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -483,10 +485,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" t="n">
-        <v>7.397</v>
+        <v>7.533</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -495,10 +497,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" t="n">
-        <v>8.154999999999999</v>
+        <v>7.397</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -507,10 +509,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" t="n">
-        <v>8.189</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -519,10 +521,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B9" t="n">
-        <v>7.582</v>
+        <v>8.189</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -531,10 +533,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" t="n">
-        <v>7.482</v>
+        <v>7.582</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -543,10 +545,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" t="n">
-        <v>7.145</v>
+        <v>7.482</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -555,10 +557,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>7.71</v>
+        <v>45383</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.145</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -567,7 +569,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>7.71</v>
@@ -579,10 +581,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>8.975</v>
+        <v>7.71</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -591,10 +593,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>8.367000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -603,10 +605,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>7.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -615,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>7.546</v>
+        <v>7.843</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>7.43</v>
+        <v>7.546</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>8.074</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>7.511</v>
+        <v>8.074</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7.333</v>
+        <v>7.511</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>7.17</v>
+        <v>7.333</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>8.137</v>
+        <v>7.17</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>7.596</v>
+        <v>8.137</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>8.465</v>
+        <v>7.596</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>8.638999999999999</v>
+        <v>8.465</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7.802</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>7.381</v>
+        <v>44866</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>7.802</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>7.388</v>
+        <v>7.381</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>8.112</v>
+        <v>7.388</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -795,10 +797,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>8.105</v>
+        <v>8.112</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -807,10 +809,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>7.637</v>
+        <v>8.105</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7.427</v>
+        <v>7.637</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>7.235</v>
+        <v>7.427</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>8.044</v>
+        <v>7.235</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>7.995</v>
+        <v>8.044</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>9.036</v>
+        <v>7.995</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -879,10 +881,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>8.349</v>
+        <v>9.036</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -891,10 +893,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>7.774</v>
+        <v>8.349</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>7.419</v>
+        <v>7.774</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -915,10 +917,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>7.375</v>
+        <v>7.419</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -927,10 +929,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>8.163</v>
+        <v>7.375</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>8.07</v>
+        <v>8.163</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>7.668</v>
+        <v>8.07</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>7.721</v>
+        <v>7.668</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>7.516</v>
+        <v>7.721</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8.118</v>
+        <v>7.516</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>8.147</v>
+        <v>8.118</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>8.936999999999999</v>
+        <v>8.147</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>8.714</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>7.583</v>
+        <v>8.714</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1047,10 +1049,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>7.477</v>
+        <v>7.583</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>7.301</v>
+        <v>7.477</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>8.015000000000001</v>
+        <v>7.301</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1082,7 +1084,12 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
+      <c r="A56" s="4" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>8.015000000000001</v>
+      </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
         <v/>
@@ -1144,6 +1151,13 @@
         <v/>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="C65">
+        <f>(B65/B77-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/energy.xlsx
+++ b/data/energy.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,11 +432,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.08</v>
+        <v>7.814</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -446,11 +446,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.513999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -460,23 +460,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.513999999999999</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>8.645</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.601</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -485,10 +487,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" t="n">
-        <v>7.533</v>
+        <v>7.601</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -497,10 +499,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" t="n">
-        <v>7.397</v>
+        <v>7.533</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -509,10 +511,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" t="n">
-        <v>8.154999999999999</v>
+        <v>7.397</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -521,10 +523,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" t="n">
-        <v>8.189</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -533,10 +535,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B10" t="n">
-        <v>7.582</v>
+        <v>8.189</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -545,10 +547,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" t="n">
-        <v>7.482</v>
+        <v>7.582</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -557,10 +559,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" t="n">
-        <v>7.145</v>
+        <v>7.482</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -569,10 +571,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>7.71</v>
+        <v>45383</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.145</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -581,7 +583,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>7.71</v>
@@ -593,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>8.975</v>
+        <v>7.71</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -605,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>8.367000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -617,10 +619,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>7.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -629,10 +631,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>7.546</v>
+        <v>7.843</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -641,10 +643,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>7.43</v>
+        <v>7.546</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -653,10 +655,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -665,10 +667,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>8.074</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -677,10 +679,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7.511</v>
+        <v>8.074</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -689,10 +691,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>7.333</v>
+        <v>7.511</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -701,10 +703,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>7.17</v>
+        <v>7.333</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -713,10 +715,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>8.137</v>
+        <v>7.17</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -725,10 +727,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>7.596</v>
+        <v>8.137</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -737,10 +739,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>8.465</v>
+        <v>7.596</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -749,10 +751,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>8.638999999999999</v>
+        <v>8.465</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -761,10 +763,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>7.802</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -773,10 +775,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>7.381</v>
+        <v>44866</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>7.802</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -785,10 +787,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>7.388</v>
+        <v>7.381</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -797,10 +799,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>8.112</v>
+        <v>7.388</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -809,10 +811,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>8.105</v>
+        <v>8.112</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -821,10 +823,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7.637</v>
+        <v>8.105</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -833,10 +835,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>7.427</v>
+        <v>7.637</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -845,10 +847,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>7.235</v>
+        <v>7.427</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -857,10 +859,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>8.044</v>
+        <v>7.235</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -869,10 +871,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>7.995</v>
+        <v>8.044</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -881,10 +883,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>9.036</v>
+        <v>7.995</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -893,10 +895,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>8.349</v>
+        <v>9.036</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -905,10 +907,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>7.774</v>
+        <v>8.349</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -917,10 +919,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>7.419</v>
+        <v>7.774</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -929,10 +931,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>7.375</v>
+        <v>7.419</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -941,10 +943,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>8.163</v>
+        <v>7.375</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -953,10 +955,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>8.07</v>
+        <v>8.163</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -965,10 +967,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>7.668</v>
+        <v>8.07</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -977,10 +979,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>7.721</v>
+        <v>7.668</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -989,10 +991,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>7.516</v>
+        <v>7.721</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1001,10 +1003,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>8.118</v>
+        <v>7.516</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1013,10 +1015,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>8.147</v>
+        <v>8.118</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1025,10 +1027,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>8.936999999999999</v>
+        <v>8.147</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1037,10 +1039,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>8.714</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>7.583</v>
+        <v>8.714</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1061,10 +1063,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>7.477</v>
+        <v>7.583</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>7.301</v>
+        <v>7.477</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1085,10 +1087,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>8.015000000000001</v>
+        <v>7.301</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1096,7 +1098,12 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
+      <c r="A57" s="4" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>8.015000000000001</v>
+      </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
         <v/>
@@ -1158,6 +1165,13 @@
         <v/>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
+      <c r="C66">
+        <f>(B66/B78-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/energy.xlsx
+++ b/data/energy.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,593 +432,603 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.814</v>
+        <v>7.289</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.08</v>
+        <v>7.814</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.513999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.513999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>8.645</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7.601</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-3.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B7" t="n">
-        <v>7.533</v>
+        <v>7.601</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" t="n">
-        <v>7.397</v>
+        <v>7.533</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" t="n">
-        <v>8.154999999999999</v>
+        <v>7.397</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" t="n">
-        <v>8.189</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B11" t="n">
-        <v>7.582</v>
+        <v>8.189</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" t="n">
-        <v>7.482</v>
+        <v>7.582</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" t="n">
-        <v>7.145</v>
+        <v>7.482</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>7.71</v>
+        <v>45383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.145</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>7.71</v>
       </c>
       <c r="C15" t="n">
-        <v>1.5</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>8.975</v>
+        <v>7.71</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>8.367000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>7.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>7.546</v>
+        <v>7.843</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>7.43</v>
+        <v>7.546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="C21" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>8.074</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>7.511</v>
+        <v>8.074</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>7.333</v>
+        <v>7.511</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>7.17</v>
+        <v>7.333</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>8.137</v>
+        <v>7.17</v>
       </c>
       <c r="C26" t="n">
-        <v>1.2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>7.596</v>
+        <v>8.137</v>
       </c>
       <c r="C27" t="n">
-        <v>-5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>8.465</v>
+        <v>7.596</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>8.638999999999999</v>
+        <v>8.465</v>
       </c>
       <c r="C29" t="n">
-        <v>3.5</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>7.802</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>7.381</v>
+        <v>44866</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>7.802</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7.388</v>
+        <v>7.381</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>8.112</v>
+        <v>7.388</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>8.105</v>
+        <v>8.112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>7.637</v>
+        <v>8.105</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>7.427</v>
+        <v>7.637</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>7.235</v>
+        <v>7.427</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>8.044</v>
+        <v>7.235</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7.995</v>
+        <v>8.044</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>9.036</v>
+        <v>7.995</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>8.349</v>
+        <v>9.036</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>7.774</v>
+        <v>8.349</v>
       </c>
       <c r="C42" t="n">
-        <v>2.5</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>7.419</v>
+        <v>7.774</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>7.375</v>
+        <v>7.419</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>8.163</v>
+        <v>7.375</v>
       </c>
       <c r="C45" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>8.07</v>
+        <v>8.163</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>7.668</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>7.721</v>
+        <v>7.668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>7.516</v>
+        <v>7.721</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>8.118</v>
+        <v>7.516</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>8.147</v>
+        <v>8.118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>8.936999999999999</v>
+        <v>8.147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>8.714</v>
+        <v>8.936999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>7.583</v>
+        <v>8.714</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>7.477</v>
+        <v>7.583</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>7.301</v>
+        <v>7.477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>7.301</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B58" s="2" t="n">
         <v>8.015000000000001</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
@@ -1043,6 +1053,9 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
